--- a/data/refining.xlsx
+++ b/data/refining.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="945">
   <si>
     <t>ra</t>
   </si>
@@ -2837,6 +2837,24 @@
   </si>
   <si>
     <t>T eff</t>
+  </si>
+  <si>
+    <t>есть фув</t>
+  </si>
+  <si>
+    <t>нижняя граница</t>
+  </si>
+  <si>
+    <t>верхняя</t>
+  </si>
+  <si>
+    <t>WTTS</t>
+  </si>
+  <si>
+    <t>не W с FUV и с FUV&lt;3,5</t>
+  </si>
+  <si>
+    <t>CTTS</t>
   </si>
 </sst>
 </file>
@@ -2852,7 +2870,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2877,6 +2895,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2890,13 +2920,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -30449,18 +30481,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V239"/>
+  <dimension ref="A1:AD239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D186" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H207"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="21" max="21" width="9.140625" style="5"/>
+    <col min="23" max="23" width="9.140625" style="2"/>
+    <col min="27" max="27" width="9.140625" style="7"/>
+    <col min="30" max="30" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30527,8 +30562,26 @@
       <c r="V1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="X1" t="s">
+        <v>940</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>941</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>943</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>18.343707980000001</v>
       </c>
@@ -30593,8 +30646,40 @@
         <f>IF(G2&lt;90, G2-H2, -100)</f>
         <v>-100</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" s="2">
+        <f>IF(G2&gt;90,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>IF(-3.88*D2 + 3.99 &lt; C2, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>IF(-3.88*D2 + 7.29 &gt; C2, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <f>IF(V2&gt;3.5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="7">
+        <f>IF(Z2, 1,X2*Y2*W2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f>W2*ABS(1-AA2)*ABS(1-Z2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f>IF(G2&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD2" s="6">
+        <f>AB2*AC2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>18.434127719999999</v>
       </c>
@@ -30632,8 +30717,40 @@
         <f t="shared" ref="V3:V66" si="0">IF(G3&lt;90, G3-H3, -100)</f>
         <v>2.8653335500000026</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" s="2">
+        <f t="shared" ref="W3:W66" si="1">IF(G3&gt;90,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X66" si="2">IF(-3.88*D3 + 3.99 &lt; C3, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y66" si="3">IF(-3.88*D3 + 7.29 &gt; C3, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z66" si="4">IF(V3&gt;3.5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="7">
+        <f t="shared" ref="AA3:AA66" si="5">IF(Z3, 1,X3*Y3*W3)</f>
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB66" si="6">W3*ABS(1-AA3)*ABS(1-Z3)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC66" si="7">IF(G3&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD3" s="6">
+        <f t="shared" ref="AD3:AD66" si="8">AB3*AC3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18.52675902</v>
       </c>
@@ -30698,8 +30815,40 @@
         <f t="shared" si="0"/>
         <v>0.63453864999999965</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD4" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18.3223226</v>
       </c>
@@ -30764,8 +30913,40 @@
         <f t="shared" si="0"/>
         <v>2.7753830000000015</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD5" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18.55995716</v>
       </c>
@@ -30803,8 +30984,40 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD6" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18.49477581</v>
       </c>
@@ -30842,8 +31055,40 @@
         <f t="shared" si="0"/>
         <v>0.51694489000000132</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD7" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>18.31495688</v>
       </c>
@@ -30908,8 +31153,40 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD8" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18.68565619</v>
       </c>
@@ -30947,8 +31224,40 @@
         <f t="shared" si="0"/>
         <v>1.5484829000000033</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD9" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18.431631540000001</v>
       </c>
@@ -31013,8 +31322,40 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD10" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18.52560583</v>
       </c>
@@ -31079,8 +31420,40 @@
         <f t="shared" si="0"/>
         <v>4.5485324799999987</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA11" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD11" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18.527366449999999</v>
       </c>
@@ -31118,8 +31491,40 @@
         <f t="shared" si="0"/>
         <v>0.85907935999999907</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W12" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD12" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18.528667909999999</v>
       </c>
@@ -31184,8 +31589,40 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18.570212819999998</v>
       </c>
@@ -31223,8 +31660,40 @@
         <f t="shared" si="0"/>
         <v>1.7436428099999972</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W14" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18.495887870000001</v>
       </c>
@@ -31289,8 +31758,40 @@
         <f t="shared" si="0"/>
         <v>5.356813429999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W15" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA15" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD15" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18.435475610000001</v>
       </c>
@@ -31328,8 +31829,40 @@
         <f t="shared" si="0"/>
         <v>0.95100212999999911</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD16" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18.319495310000001</v>
       </c>
@@ -31394,8 +31927,40 @@
         <f t="shared" si="0"/>
         <v>2.1268253300000026</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD17" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18.53392711</v>
       </c>
@@ -31433,8 +31998,40 @@
         <f t="shared" si="0"/>
         <v>0.13570594999999841</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD18" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18.449333790000001</v>
       </c>
@@ -31499,8 +32096,40 @@
         <f t="shared" si="0"/>
         <v>6.4188575700000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA19" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD19" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18.558647220000001</v>
       </c>
@@ -31538,8 +32167,40 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD20" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18.548595389999999</v>
       </c>
@@ -31577,8 +32238,40 @@
         <f t="shared" si="0"/>
         <v>0.59843826000000178</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD21" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18.506044840000001</v>
       </c>
@@ -31643,8 +32336,40 @@
         <f t="shared" si="0"/>
         <v>0.89327811999999795</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD22" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18.33470792</v>
       </c>
@@ -31682,8 +32407,40 @@
         <f t="shared" si="0"/>
         <v>2.7897071799999971</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD23" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18.5187709</v>
       </c>
@@ -31721,8 +32478,40 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD24" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18.383588360000001</v>
       </c>
@@ -31760,8 +32549,40 @@
         <f t="shared" si="0"/>
         <v>-1.0591068300000011</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD25" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18.497240619999999</v>
       </c>
@@ -31799,8 +32620,40 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD26" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>18.513662450000002</v>
       </c>
@@ -31865,8 +32718,40 @@
         <f t="shared" si="0"/>
         <v>1.2207221999999973</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD27" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18.48202929</v>
       </c>
@@ -31931,8 +32816,40 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD28" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18.51411482</v>
       </c>
@@ -31997,8 +32914,40 @@
         <f t="shared" si="0"/>
         <v>3.8982086199999983</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA29" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD29" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>18.541448890000002</v>
       </c>
@@ -32063,8 +33012,40 @@
         <f t="shared" si="0"/>
         <v>1.8831749000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD30" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>18.593436740000001</v>
       </c>
@@ -32102,8 +33083,40 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD31" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>18.487464379999999</v>
       </c>
@@ -32141,8 +33154,40 @@
         <f t="shared" si="0"/>
         <v>2.2192211099999994</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD32" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>18.483810389999999</v>
       </c>
@@ -32180,8 +33225,40 @@
         <f t="shared" si="0"/>
         <v>-0.64000702000000231</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W33" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD33" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>18.492834949999999</v>
       </c>
@@ -32219,8 +33296,40 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W34" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD34" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>18.5437063</v>
       </c>
@@ -32288,8 +33397,40 @@
         <f t="shared" si="0"/>
         <v>5.523785590000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W35" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA35" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD35" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>18.536649959999998</v>
       </c>
@@ -32327,8 +33468,40 @@
         <f t="shared" si="0"/>
         <v>4.8317909300000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W36" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA36" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD36" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>18.638436509999998</v>
       </c>
@@ -32393,8 +33566,40 @@
         <f t="shared" si="0"/>
         <v>2.6840744000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W37" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD37" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>18.58304678</v>
       </c>
@@ -32459,8 +33664,40 @@
         <f t="shared" si="0"/>
         <v>4.1817054700000007</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W38" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA38" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD38" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>18.699104599999998</v>
       </c>
@@ -32498,8 +33735,40 @@
         <f t="shared" si="0"/>
         <v>1.7188320200000007</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD39" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>18.524556239999999</v>
       </c>
@@ -32537,8 +33806,40 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W40" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD40" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>18.338871739999998</v>
       </c>
@@ -32603,8 +33904,40 @@
         <f t="shared" si="0"/>
         <v>2.0911331200000021</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W41" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD41" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>18.580781170000002</v>
       </c>
@@ -32669,8 +34002,40 @@
         <f t="shared" si="0"/>
         <v>-2.3810749000000015</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W42" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD42" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>18.303518409999999</v>
       </c>
@@ -32708,8 +34073,40 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W43" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD43" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>18.512157899999998</v>
       </c>
@@ -32747,8 +34144,40 @@
         <f t="shared" si="0"/>
         <v>4.7804622600000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W44" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA44" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD44" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>18.535341330000001</v>
       </c>
@@ -32813,8 +34242,40 @@
         <f t="shared" si="0"/>
         <v>3.8550815599999986</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W45" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA45" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD45" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>18.31232533</v>
       </c>
@@ -32852,8 +34313,40 @@
         <f t="shared" si="0"/>
         <v>1.7824611600000004</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W46" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD46" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>18.411301569999999</v>
       </c>
@@ -32891,8 +34384,40 @@
         <f t="shared" si="0"/>
         <v>1.7937240599999988</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W47" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD47" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>18.54151894</v>
       </c>
@@ -32957,8 +34482,40 @@
         <f t="shared" si="0"/>
         <v>4.0710468300000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W48" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA48" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD48" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>18.339799639999999</v>
       </c>
@@ -33023,8 +34580,40 @@
         <f t="shared" si="0"/>
         <v>0.84295654000000297</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W49" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD49" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>18.57359027</v>
       </c>
@@ -33089,8 +34678,40 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W50" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD50" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>18.380711550000001</v>
       </c>
@@ -33128,8 +34749,40 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W51" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD51" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>18.34247212</v>
       </c>
@@ -33194,8 +34847,40 @@
         <f t="shared" si="0"/>
         <v>0.61526871000000227</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W52" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD52" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>18.458960520000002</v>
       </c>
@@ -33233,8 +34918,40 @@
         <f t="shared" si="0"/>
         <v>1.5305881499999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W53" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA53" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD53" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>18.522760890000001</v>
       </c>
@@ -33272,8 +34989,40 @@
         <f t="shared" si="0"/>
         <v>2.2521724700000014</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W54" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD54" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>18.425693089999999</v>
       </c>
@@ -33311,8 +35060,40 @@
         <f t="shared" si="0"/>
         <v>2.7436122900000015</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W55" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA55" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD55" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>18.589917839999998</v>
       </c>
@@ -33350,8 +35131,40 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W56" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA56" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD56" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>18.47030462</v>
       </c>
@@ -33389,8 +35202,40 @@
         <f t="shared" si="0"/>
         <v>0.57812880999999905</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W57" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA57" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD57" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>18.466616250000001</v>
       </c>
@@ -33455,8 +35300,40 @@
         <f t="shared" si="0"/>
         <v>3.4604835499999993</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W58" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA58" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD58" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>18.45436754</v>
       </c>
@@ -33521,8 +35398,40 @@
         <f t="shared" si="0"/>
         <v>5.76328277</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W59" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA59" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD59" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>18.548954080000001</v>
       </c>
@@ -33587,8 +35496,40 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W60" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA60" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD60" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>18.519039960000001</v>
       </c>
@@ -33626,8 +35567,40 @@
         <f t="shared" si="0"/>
         <v>1.92485237</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W61" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA61" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD61" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>18.387133930000001</v>
       </c>
@@ -33665,8 +35638,40 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W62" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA62" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>18.41457986</v>
       </c>
@@ -33731,8 +35736,40 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W63" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA63" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>18.693565</v>
       </c>
@@ -33770,8 +35807,40 @@
         <f t="shared" si="0"/>
         <v>-1.2015857699999977</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W64" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD64" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>18.43436419</v>
       </c>
@@ -33836,8 +35905,40 @@
         <f t="shared" si="0"/>
         <v>4.12704849</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W65" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA65" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD65" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>18.566018540000002</v>
       </c>
@@ -33875,8 +35976,40 @@
         <f t="shared" si="0"/>
         <v>0.99994086999999965</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W66" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD66" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>18.45979088</v>
       </c>
@@ -33938,11 +36071,43 @@
         <v>4100</v>
       </c>
       <c r="V67">
-        <f t="shared" ref="V67:V130" si="1">IF(G67&lt;90, G67-H67, -100)</f>
+        <f t="shared" ref="V67:V130" si="9">IF(G67&lt;90, G67-H67, -100)</f>
         <v>0.80388831999999866</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W67" s="2">
+        <f t="shared" ref="W67:W130" si="10">IF(G67&gt;90,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="X67">
+        <f t="shared" ref="X67:X130" si="11">IF(-3.88*D67 + 3.99 &lt; C67, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" ref="Y67:Y130" si="12">IF(-3.88*D67 + 7.29 &gt; C67, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" ref="Z67:Z130" si="13">IF(V67&gt;3.5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="7">
+        <f t="shared" ref="AA67:AA130" si="14">IF(Z67, 1,X67*Y67*W67)</f>
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" ref="AB67:AB130" si="15">W67*ABS(1-AA67)*ABS(1-Z67)</f>
+        <v>1</v>
+      </c>
+      <c r="AC67">
+        <f t="shared" ref="AC67:AC130" si="16">IF(G67&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD67" s="6">
+        <f t="shared" ref="AD67:AD130" si="17">AB67*AC67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>18.466640030000001</v>
       </c>
@@ -33977,11 +36142,43 @@
         <v>6250</v>
       </c>
       <c r="V68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W68" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA68" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD68" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>18.337609449999999</v>
       </c>
@@ -34016,11 +36213,43 @@
         <v>4100</v>
       </c>
       <c r="V69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W69" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA69" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD69" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>18.618269609999999</v>
       </c>
@@ -34055,11 +36284,43 @@
         <v>5700</v>
       </c>
       <c r="V70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.2249374300000007</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W70" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA70" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD70" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>18.449843380000001</v>
       </c>
@@ -34121,11 +36382,43 @@
         <v>4750</v>
       </c>
       <c r="V71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.1184940399999981</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W71" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA71" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD71" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>18.30822483</v>
       </c>
@@ -34187,11 +36480,43 @@
         <v>4050</v>
       </c>
       <c r="V72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W72" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA72" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD72" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>18.47328164</v>
       </c>
@@ -34226,11 +36551,43 @@
         <v>6000</v>
       </c>
       <c r="V73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5.2005367200000023</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W73" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA73" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB73">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD73" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>18.410426180000002</v>
       </c>
@@ -34292,11 +36649,43 @@
         <v>4750</v>
       </c>
       <c r="V74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3.2932720199999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W74" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA74" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB74">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD74" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>18.662115270000001</v>
       </c>
@@ -34331,11 +36720,43 @@
         <v>6550</v>
       </c>
       <c r="V75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-1.7840671599999993</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W75" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC75">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD75" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>18.52171732</v>
       </c>
@@ -34397,11 +36818,43 @@
         <v>4350</v>
       </c>
       <c r="V76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.6820945799999976</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W76" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA76" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB76">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD76" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>18.62689975</v>
       </c>
@@ -34463,11 +36916,43 @@
         <v>4450</v>
       </c>
       <c r="V77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.0166015600000016</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W77" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC77">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD77" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>18.463597409999998</v>
       </c>
@@ -34502,11 +36987,43 @@
         <v>5650</v>
       </c>
       <c r="V78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W78" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA78" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD78" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>18.353242980000001</v>
       </c>
@@ -34541,11 +37058,43 @@
         <v>6500</v>
       </c>
       <c r="V79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.9576168099999975</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W79" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA79" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC79">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD79" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>18.678228699999998</v>
       </c>
@@ -34580,11 +37129,43 @@
         <v>6250</v>
       </c>
       <c r="V80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4.4337692299999993</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W80" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA80" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB80">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD80" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>18.714298840000001</v>
       </c>
@@ -34619,11 +37200,43 @@
         <v>6350</v>
       </c>
       <c r="V81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-0.1716308600000005</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W81" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA81" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD81" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>18.6748662</v>
       </c>
@@ -34658,11 +37271,43 @@
         <v>5950</v>
       </c>
       <c r="V82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W82" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA82" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD82" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>18.483955030000001</v>
       </c>
@@ -34697,11 +37342,43 @@
         <v>5100</v>
       </c>
       <c r="V83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W83" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA83" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD83" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>18.45763801</v>
       </c>
@@ -34763,11 +37440,43 @@
         <v>5050</v>
       </c>
       <c r="V84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.7766437600000025</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W84" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z84">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA84" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB84">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD84" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>18.699818740000001</v>
       </c>
@@ -34829,11 +37538,43 @@
         <v>4500</v>
       </c>
       <c r="V85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W85" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA85" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD85" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>18.465334989999999</v>
       </c>
@@ -34868,11 +37609,43 @@
         <v>6100</v>
       </c>
       <c r="V86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-1.4667499999987399E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W86" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z86">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA86" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB86">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD86" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>18.675169929999999</v>
       </c>
@@ -34934,11 +37707,43 @@
         <v>4700</v>
       </c>
       <c r="V87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3.243200299999998</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W87" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA87" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB87">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD87" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>18.597271209999999</v>
       </c>
@@ -34973,11 +37778,43 @@
         <v>6300</v>
       </c>
       <c r="V88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3.0798587799999986</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W88" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA88" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB88">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD88" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>18.4384406</v>
       </c>
@@ -35039,11 +37876,43 @@
         <v>4900</v>
       </c>
       <c r="V89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W89" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z89">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA89" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD89" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>18.559690159999999</v>
       </c>
@@ -35105,11 +37974,43 @@
         <v>5000</v>
       </c>
       <c r="V90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.3115425099999989</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W90" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA90" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC90">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD90" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>18.502124340000002</v>
       </c>
@@ -35171,11 +38072,43 @@
         <v>4350</v>
       </c>
       <c r="V91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-1.6399390000000125E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W91" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z91">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA91" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC91">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD91" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>18.376104730000002</v>
       </c>
@@ -35210,11 +38143,43 @@
         <v>6600</v>
       </c>
       <c r="V92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.3565635699999987</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W92" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA92" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB92">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD92" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>18.44554853</v>
       </c>
@@ -35276,11 +38241,43 @@
         <v>4450</v>
       </c>
       <c r="V93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-9.9163050000001363E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W93" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA93" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC93">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD93" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>18.623673629999999</v>
       </c>
@@ -35342,11 +38339,43 @@
         <v>4500</v>
       </c>
       <c r="V94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0.49861716999999928</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W94" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z94">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA94" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC94">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD94" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>18.358845639999998</v>
       </c>
@@ -35381,11 +38410,43 @@
         <v>6750</v>
       </c>
       <c r="V95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3.7755279500000007</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W95" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA95" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB95">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD95" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>18.303420549999998</v>
       </c>
@@ -35447,11 +38508,43 @@
         <v>3200</v>
       </c>
       <c r="V96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3.9468936899999996</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W96" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA96" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB96">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC96">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD96" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>18.453981450000001</v>
       </c>
@@ -35513,11 +38606,43 @@
         <v>4100</v>
       </c>
       <c r="V97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.6958561000000003</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W97" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA97" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC97">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD97" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>18.543997059999999</v>
       </c>
@@ -35552,11 +38677,43 @@
         <v>6200</v>
       </c>
       <c r="V98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W98" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z98">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA98" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD98" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>18.442438920000001</v>
       </c>
@@ -35618,11 +38775,43 @@
         <v>4650</v>
       </c>
       <c r="V99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.2487678500000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W99" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y99">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z99">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA99" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB99">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD99" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>18.38727196</v>
       </c>
@@ -35684,11 +38873,43 @@
         <v>5900</v>
       </c>
       <c r="V100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W100" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z100">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA100" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD100" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>18.523091569999998</v>
       </c>
@@ -35753,11 +38974,43 @@
         <v>3100</v>
       </c>
       <c r="V101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4.1052761100000019</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W101" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y101">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA101" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB101">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD101" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>18.46869508</v>
       </c>
@@ -35819,11 +39072,43 @@
         <v>4250</v>
       </c>
       <c r="V102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.1066246</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W102" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z102">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA102" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB102">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC102">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD102" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>18.580531619999999</v>
       </c>
@@ -35858,11 +39143,43 @@
         <v>3450</v>
       </c>
       <c r="V103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0.53140258999999901</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W103" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z103">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA103" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC103">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD103" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>18.689524309999999</v>
       </c>
@@ -35924,11 +39241,43 @@
         <v>4050</v>
       </c>
       <c r="V104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W104" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z104">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA104" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD104" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>18.632114699999999</v>
       </c>
@@ -35993,11 +39342,43 @@
         <v>3850</v>
       </c>
       <c r="V105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4.3583545699999995</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W105" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y105">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z105">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA105" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB105">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD105" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>18.66304766</v>
       </c>
@@ -36059,11 +39440,43 @@
         <v>4700</v>
       </c>
       <c r="V106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5.6623783099999976</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W106" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y106">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA106" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB106">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD106" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>18.64594993</v>
       </c>
@@ -36098,11 +39511,43 @@
         <v>6450</v>
       </c>
       <c r="V107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W107" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z107">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA107" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD107" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>18.50827233</v>
       </c>
@@ -36137,11 +39582,43 @@
         <v>6900</v>
       </c>
       <c r="V108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.1054534899999986</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W108" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X108">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y108">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA108" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC108">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD108" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>18.461726089999999</v>
       </c>
@@ -36203,11 +39680,43 @@
         <v>5100</v>
       </c>
       <c r="V109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.025999070000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W109" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X109">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y109">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z109">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA109" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB109">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD109" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>18.55175436</v>
       </c>
@@ -36269,11 +39778,43 @@
         <v>4300</v>
       </c>
       <c r="V110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.1275653800000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W110" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X110">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y110">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA110" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB110">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD110" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>18.476256280000001</v>
       </c>
@@ -36308,11 +39849,43 @@
         <v>5500</v>
       </c>
       <c r="V111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.0401401499999992</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W111" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X111">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y111">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z111">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA111" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB111">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC111">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD111" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>18.476842609999999</v>
       </c>
@@ -36347,11 +39920,43 @@
         <v>5700</v>
       </c>
       <c r="V112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.921808249999998</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W112" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X112">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z112">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA112" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB112">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC112">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD112" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>18.577890159999999</v>
       </c>
@@ -36413,11 +40018,43 @@
         <v>6350</v>
       </c>
       <c r="V113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3.0923595400000004</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W113" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X113">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y113">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z113">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA113" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB113">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC113">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD113" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>18.569706669999999</v>
       </c>
@@ -36479,11 +40116,43 @@
         <v>5600</v>
       </c>
       <c r="V114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0.42532349000000025</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W114" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X114">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z114">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA114" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB114">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC114">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD114" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>18.46583171</v>
       </c>
@@ -36518,11 +40187,43 @@
         <v>6050</v>
       </c>
       <c r="V115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0.57011413000000033</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W115" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X115">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z115">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA115" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB115">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC115">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD115" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>18.695740879999999</v>
       </c>
@@ -36584,11 +40285,43 @@
         <v>3250</v>
       </c>
       <c r="V116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0.81325721999999701</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W116" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X116">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y116">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z116">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA116" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB116">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC116">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD116" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>18.491818240000001</v>
       </c>
@@ -36650,11 +40383,43 @@
         <v>4350</v>
       </c>
       <c r="V117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.6451072700000005</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W117" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X117">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z117">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA117" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB117">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC117">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD117" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>18.697377230000001</v>
       </c>
@@ -36716,11 +40481,43 @@
         <v>5950</v>
       </c>
       <c r="V118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.2111244200000009</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W118" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X118">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z118">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA118" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB118">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC118">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD118" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>18.633868589999999</v>
       </c>
@@ -36782,11 +40579,43 @@
         <v>4550</v>
       </c>
       <c r="V119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W119" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z119">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA119" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB119">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC119">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD119" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>18.485645229999999</v>
       </c>
@@ -36848,11 +40677,43 @@
         <v>4250</v>
       </c>
       <c r="V120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-1.6718807199999972</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W120" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X120">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z120">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA120" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB120">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC120">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD120" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>18.363019779999998</v>
       </c>
@@ -36914,11 +40775,43 @@
         <v>5450</v>
       </c>
       <c r="V121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.5137653399999991</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W121" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X121">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y121">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z121">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA121" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB121">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD121" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>18.480144689999999</v>
       </c>
@@ -36980,11 +40873,43 @@
         <v>5200</v>
       </c>
       <c r="V122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.6578331000000013</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W122" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X122">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z122">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA122" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB122">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC122">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD122" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>18.479835019999999</v>
       </c>
@@ -37046,11 +40971,43 @@
         <v>4450</v>
       </c>
       <c r="V123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.8892479000000009</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W123" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X123">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y123">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z123">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA123" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB123">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC123">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD123" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>18.63042407</v>
       </c>
@@ -37085,11 +41042,43 @@
         <v>6200</v>
       </c>
       <c r="V124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.4832115100000003</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W124" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X124">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y124">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z124">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA124" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB124">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC124">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD124" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>18.499686929999999</v>
       </c>
@@ -37124,11 +41113,43 @@
         <v>6550</v>
       </c>
       <c r="V125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3.1624793999999987</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W125" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X125">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y125">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA125" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB125">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC125">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD125" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>18.564729069999999</v>
       </c>
@@ -37190,11 +41211,43 @@
         <v>4400</v>
       </c>
       <c r="V126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.859106060000002</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W126" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X126">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y126">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z126">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA126" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB126">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC126">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD126" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>18.579037339999999</v>
       </c>
@@ -37256,11 +41309,43 @@
         <v>5600</v>
       </c>
       <c r="V127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4.5373592399999971</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W127" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X127">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y127">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z127">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA127" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB127">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC127">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD127" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>18.574457030000001</v>
       </c>
@@ -37295,11 +41380,43 @@
         <v>6000</v>
       </c>
       <c r="V128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-1.0375979999999174E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W128" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X128">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y128">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z128">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA128" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB128">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC128">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD128" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>18.449449850000001</v>
       </c>
@@ -37334,11 +41451,43 @@
         <v>6150</v>
       </c>
       <c r="V129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W129" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z129">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA129" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB129">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC129">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD129" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>18.624135330000001</v>
       </c>
@@ -37400,11 +41549,43 @@
         <v>4550</v>
       </c>
       <c r="V130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W130" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z130">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA130" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB130">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC130">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD130" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>18.709350799999999</v>
       </c>
@@ -37466,11 +41647,43 @@
         <v>4950</v>
       </c>
       <c r="V131">
-        <f t="shared" ref="V131:V194" si="2">IF(G131&lt;90, G131-H131, -100)</f>
+        <f t="shared" ref="V131:V194" si="18">IF(G131&lt;90, G131-H131, -100)</f>
         <v>2.4364414200000013</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W131" s="2">
+        <f t="shared" ref="W131:W194" si="19">IF(G131&gt;90,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="X131">
+        <f t="shared" ref="X131:X194" si="20">IF(-3.88*D131 + 3.99 &lt; C131, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y131">
+        <f t="shared" ref="Y131:Y194" si="21">IF(-3.88*D131 + 7.29 &gt; C131, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z131">
+        <f t="shared" ref="Z131:Z194" si="22">IF(V131&gt;3.5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA131" s="7">
+        <f t="shared" ref="AA131:AA194" si="23">IF(Z131, 1,X131*Y131*W131)</f>
+        <v>1</v>
+      </c>
+      <c r="AB131">
+        <f t="shared" ref="AB131:AB194" si="24">W131*ABS(1-AA131)*ABS(1-Z131)</f>
+        <v>0</v>
+      </c>
+      <c r="AC131">
+        <f t="shared" ref="AC131:AC194" si="25">IF(G131&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD131" s="6">
+        <f t="shared" ref="AD131:AD194" si="26">AB131*AC131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>18.483696479999999</v>
       </c>
@@ -37532,11 +41745,43 @@
         <v>4100</v>
       </c>
       <c r="V132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-0.67465401000000114</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W132" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X132">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z132">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA132" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB132">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC132">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD132" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>18.466036460000002</v>
       </c>
@@ -37571,11 +41816,43 @@
         <v>5350</v>
       </c>
       <c r="V133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W133" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z133">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA133" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB133">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC133">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD133" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>18.66037334</v>
       </c>
@@ -37637,11 +41914,43 @@
         <v>5100</v>
       </c>
       <c r="V134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.3813018799999988</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W134" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X134">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y134">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z134">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA134" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB134">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC134">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD134" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>18.482457119999999</v>
       </c>
@@ -37703,11 +42012,43 @@
         <v>5350</v>
       </c>
       <c r="V135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W135" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z135">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA135" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB135">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC135">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD135" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>18.5311998</v>
       </c>
@@ -37742,11 +42083,43 @@
         <v>6150</v>
       </c>
       <c r="V136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>1.7580871599999988</v>
       </c>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W136" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X136">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y136">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z136">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA136" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB136">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC136">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD136" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>18.40198006</v>
       </c>
@@ -37808,11 +42181,43 @@
         <v>4300</v>
       </c>
       <c r="V137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>0.39480780999999965</v>
       </c>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W137" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X137">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z137">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA137" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB137">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC137">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD137" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>18.50598024</v>
       </c>
@@ -37874,11 +42279,43 @@
         <v>5800</v>
       </c>
       <c r="V138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W138" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z138">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA138" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB138">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC138">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD138" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>18.66444512</v>
       </c>
@@ -37940,11 +42377,43 @@
         <v>4700</v>
       </c>
       <c r="V139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W139" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z139">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA139" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB139">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC139">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD139" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>18.62417314</v>
       </c>
@@ -37979,11 +42448,43 @@
         <v>5100</v>
       </c>
       <c r="V140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-1.0254631100000005</v>
       </c>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W140" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X140">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z140">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA140" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB140">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC140">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD140" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>18.585192889999998</v>
       </c>
@@ -38018,11 +42519,43 @@
         <v>5600</v>
       </c>
       <c r="V141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-0.30294608999999895</v>
       </c>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W141" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X141">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y141">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z141">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA141" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB141">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC141">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD141" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>18.519665209999999</v>
       </c>
@@ -38057,11 +42590,43 @@
         <v>6000</v>
       </c>
       <c r="V142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W142" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z142">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA142" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB142">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC142">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD142" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>18.515347599999998</v>
       </c>
@@ -38096,11 +42661,43 @@
         <v>5550</v>
       </c>
       <c r="V143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W143" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z143">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA143" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB143">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC143">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD143" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>18.478539860000001</v>
       </c>
@@ -38135,11 +42732,43 @@
         <v>6800</v>
       </c>
       <c r="V144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>3.8678016599999978</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W144" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X144">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y144">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AA144" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB144">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC144">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD144" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>18.561135239999999</v>
       </c>
@@ -38174,11 +42803,43 @@
         <v>5600</v>
       </c>
       <c r="V145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>0.51699447999999748</v>
       </c>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W145" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X145">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y145">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z145">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA145" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB145">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC145">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD145" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>18.624338760000001</v>
       </c>
@@ -38213,11 +42874,43 @@
         <v>6750</v>
       </c>
       <c r="V146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>1.3280906599999973</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W146" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X146">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y146">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z146">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA146" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB146">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC146">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD146" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>18.500313169999998</v>
       </c>
@@ -38279,11 +42972,43 @@
         <v>6450</v>
       </c>
       <c r="V147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W147" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z147">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA147" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB147">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC147">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD147" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>18.572259729999999</v>
       </c>
@@ -38345,11 +43070,43 @@
         <v>4400</v>
       </c>
       <c r="V148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-1.4398765600000019</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W148" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X148">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z148">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA148" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB148">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC148">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD148" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>18.541603169999998</v>
       </c>
@@ -38384,11 +43141,43 @@
         <v>5500</v>
       </c>
       <c r="V149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-2.9400844600000013</v>
       </c>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W149" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X149">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z149">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA149" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB149">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC149">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD149" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>18.509304719999999</v>
       </c>
@@ -38423,11 +43212,43 @@
         <v>6500</v>
       </c>
       <c r="V150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W150" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z150">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA150" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB150">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC150">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD150" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>18.654089549999998</v>
       </c>
@@ -38462,11 +43283,43 @@
         <v>6350</v>
       </c>
       <c r="V151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>1.1921997100000006</v>
       </c>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W151" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X151">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y151">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z151">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA151" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB151">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC151">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD151" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>18.545647819999999</v>
       </c>
@@ -38528,11 +43381,43 @@
         <v>4250</v>
       </c>
       <c r="V152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>5.5769214600000012</v>
       </c>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W152" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X152">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y152">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AA152" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB152">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC152">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD152" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>18.463432910000002</v>
       </c>
@@ -38567,11 +43452,43 @@
         <v>4950</v>
       </c>
       <c r="V153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>5.8757553099999988</v>
       </c>
-    </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W153" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X153">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y153">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z153">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AA153" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB153">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC153">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD153" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>18.481811579999999</v>
       </c>
@@ -38606,11 +43523,43 @@
         <v>5400</v>
       </c>
       <c r="V154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-0.88572501999999886</v>
       </c>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W154" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X154">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z154">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA154" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB154">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC154">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD154" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>18.654729740000001</v>
       </c>
@@ -38645,11 +43594,43 @@
         <v>5950</v>
       </c>
       <c r="V155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>0.59300422000000097</v>
       </c>
-    </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W155" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X155">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y155">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z155">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA155" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB155">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC155">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD155" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>18.481229930000001</v>
       </c>
@@ -38684,11 +43665,43 @@
         <v>6050</v>
       </c>
       <c r="V156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W156" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z156">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA156" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB156">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC156">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD156" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>18.601034670000001</v>
       </c>
@@ -38723,11 +43736,43 @@
         <v>5500</v>
       </c>
       <c r="V157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-0.10568237000000025</v>
       </c>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W157" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X157">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z157">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA157" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB157">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC157">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD157" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>18.703595610000001</v>
       </c>
@@ -38762,11 +43807,43 @@
         <v>5250</v>
       </c>
       <c r="V158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W158" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z158">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA158" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB158">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC158">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD158" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>18.578423650000001</v>
       </c>
@@ -38828,11 +43905,43 @@
         <v>4700</v>
       </c>
       <c r="V159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W159" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z159">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA159" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB159">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC159">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD159" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>18.54455583</v>
       </c>
@@ -38894,11 +44003,43 @@
         <v>3600</v>
       </c>
       <c r="V160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>4.4591426799999994</v>
       </c>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W160" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X160">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y160">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AA160" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB160">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC160">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD160" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>18.709833840000002</v>
       </c>
@@ -38933,11 +44074,43 @@
         <v>6350</v>
       </c>
       <c r="V161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W161" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z161">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA161" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB161">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC161">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD161" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>18.650219440000001</v>
       </c>
@@ -38999,11 +44172,43 @@
         <v>5100</v>
       </c>
       <c r="V162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>3.1187060000000599E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W162" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X162">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z162">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA162" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB162">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC162">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD162" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>18.480853629999999</v>
       </c>
@@ -39038,11 +44243,43 @@
         <v>6350</v>
       </c>
       <c r="V163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>0.75770186999999822</v>
       </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W163" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X163">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y163">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z163">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA163" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB163">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC163">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD163" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>18.638302280000001</v>
       </c>
@@ -39077,11 +44314,43 @@
         <v>5850</v>
       </c>
       <c r="V164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>1.3885059399999982</v>
       </c>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W164" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X164">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z164">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA164" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB164">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC164">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD164" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>18.572944499999998</v>
       </c>
@@ -39116,11 +44385,43 @@
         <v>6050</v>
       </c>
       <c r="V165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>0.92787169999999719</v>
       </c>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W165" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X165">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y165">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z165">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA165" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB165">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC165">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD165" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>18.49183262</v>
       </c>
@@ -39182,11 +44483,43 @@
         <v>4450</v>
       </c>
       <c r="V166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W166" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z166">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA166" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB166">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC166">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD166" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>18.525278589999999</v>
       </c>
@@ -39248,11 +44581,43 @@
         <v>5150</v>
       </c>
       <c r="V167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>1.0146217299999982</v>
       </c>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W167" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X167">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z167">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA167" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB167">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC167">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD167" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>18.597010439999998</v>
       </c>
@@ -39314,11 +44679,43 @@
         <v>3800</v>
       </c>
       <c r="V168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>1.1807937600000002</v>
       </c>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W168" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X168">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z168">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA168" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB168">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC168">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD168" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>18.608670289999999</v>
       </c>
@@ -39380,11 +44777,43 @@
         <v>5500</v>
       </c>
       <c r="V169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>0.32420540000000031</v>
       </c>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W169" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X169">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z169">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA169" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB169">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC169">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD169" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>18.442345280000001</v>
       </c>
@@ -39446,11 +44875,43 @@
         <v>4350</v>
       </c>
       <c r="V170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>1.3531875699999993</v>
       </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W170" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X170">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z170">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA170" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB170">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC170">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD170" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>18.531539949999999</v>
       </c>
@@ -39485,11 +44946,43 @@
         <v>6500</v>
       </c>
       <c r="V171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>0.13417244000000039</v>
       </c>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W171" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X171">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y171">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z171">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA171" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB171">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC171">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD171" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>18.654912190000001</v>
       </c>
@@ -39524,11 +45017,43 @@
         <v>5250</v>
       </c>
       <c r="V172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-1.0051155099999995</v>
       </c>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W172" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X172">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y172">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z172">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA172" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB172">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC172">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD172" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>18.621574119999998</v>
       </c>
@@ -39590,11 +45115,43 @@
         <v>4100</v>
       </c>
       <c r="V173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W173" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y173">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z173">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA173" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB173">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC173">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD173" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>18.706776940000001</v>
       </c>
@@ -39656,11 +45213,43 @@
         <v>4300</v>
       </c>
       <c r="V174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W174" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z174">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA174" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB174">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC174">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD174" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>18.489980119999998</v>
       </c>
@@ -39722,11 +45311,43 @@
         <v>3800</v>
       </c>
       <c r="V175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W175" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X175">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z175">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA175" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB175">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC175">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD175" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>18.44206934</v>
       </c>
@@ -39761,11 +45382,43 @@
         <v>6500</v>
       </c>
       <c r="V176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.4247627200000004</v>
       </c>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W176" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X176">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y176">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z176">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA176" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB176">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC176">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD176" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>18.586495299999999</v>
       </c>
@@ -39827,11 +45480,43 @@
         <v>4300</v>
       </c>
       <c r="V177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W177" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z177">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA177" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB177">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC177">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD177" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>18.53624202</v>
       </c>
@@ -39893,11 +45578,43 @@
         <v>3850</v>
       </c>
       <c r="V178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>3.4536266299999987</v>
       </c>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W178" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X178">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y178">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z178">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA178" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB178">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC178">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD178" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>18.61124792</v>
       </c>
@@ -39932,11 +45649,43 @@
         <v>5300</v>
       </c>
       <c r="V179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-1.7461833900000023</v>
       </c>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W179" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X179">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z179">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA179" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB179">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC179">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD179" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>18.529252400000001</v>
       </c>
@@ -39998,11 +45747,43 @@
         <v>4400</v>
       </c>
       <c r="V180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.6363525400000007</v>
       </c>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W180" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X180">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y180">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z180">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA180" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB180">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC180">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD180" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>18.576600079999999</v>
       </c>
@@ -40064,11 +45845,43 @@
         <v>5150</v>
       </c>
       <c r="V181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W181" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z181">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA181" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB181">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC181">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD181" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>18.58543547</v>
       </c>
@@ -40103,11 +45916,43 @@
         <v>6500</v>
       </c>
       <c r="V182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>1.0693969699999997</v>
       </c>
-    </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W182" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X182">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y182">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z182">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA182" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB182">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC182">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD182" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>18.52991389</v>
       </c>
@@ -40142,11 +45987,43 @@
         <v>5400</v>
       </c>
       <c r="V183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-1.0391159099999996</v>
       </c>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W183" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X183">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y183">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z183">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA183" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB183">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC183">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD183" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>18.705966100000001</v>
       </c>
@@ -40208,11 +46085,43 @@
         <v>6250</v>
       </c>
       <c r="V184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>3.3749713899999989</v>
       </c>
-    </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W184" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X184">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y184">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z184">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA184" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB184">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC184">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD184" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>18.513741339999999</v>
       </c>
@@ -40274,11 +46183,43 @@
         <v>5200</v>
       </c>
       <c r="V185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>0.93057251000000107</v>
       </c>
-    </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W185" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X185">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z185">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA185" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB185">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC185">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD185" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>18.507719120000001</v>
       </c>
@@ -40340,11 +46281,43 @@
         <v>4800</v>
       </c>
       <c r="V186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>0.19016837999999936</v>
       </c>
-    </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W186" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X186">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z186">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA186" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB186">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC186">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD186" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>18.513178270000001</v>
       </c>
@@ -40379,11 +46352,43 @@
         <v>6750</v>
       </c>
       <c r="V187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W187" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z187">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA187" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB187">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC187">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD187" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>18.694272210000001</v>
       </c>
@@ -40445,11 +46450,43 @@
         <v>3850</v>
       </c>
       <c r="V188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W188" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z188">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA188" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB188">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC188">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD188" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>18.462570249999999</v>
       </c>
@@ -40484,11 +46521,43 @@
         <v>4950</v>
       </c>
       <c r="V189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>0.90088843999999924</v>
       </c>
-    </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W189" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X189">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z189">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA189" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB189">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC189">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD189" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>18.54192591</v>
       </c>
@@ -40550,11 +46619,43 @@
         <v>4600</v>
       </c>
       <c r="V190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.4732990299999997</v>
       </c>
-    </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W190" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X190">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y190">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z190">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA190" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB190">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC190">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD190" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>18.650331439999999</v>
       </c>
@@ -40589,11 +46690,43 @@
         <v>6050</v>
       </c>
       <c r="V191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W191" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z191">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA191" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB191">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC191">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD191" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>18.67098747</v>
       </c>
@@ -40655,11 +46788,43 @@
         <v>4400</v>
       </c>
       <c r="V192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W192" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z192">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA192" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB192">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC192">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD192" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>18.57251973</v>
       </c>
@@ -40721,11 +46886,43 @@
         <v>4400</v>
       </c>
       <c r="V193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>4.4789104399999999</v>
       </c>
-    </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W193" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X193">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y193">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z193">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AA193" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB193">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC193">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD193" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>18.641591949999999</v>
       </c>
@@ -40760,11 +46957,43 @@
         <v>6300</v>
       </c>
       <c r="V194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>-0.47700881999999822</v>
       </c>
-    </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W194" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X194">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Y194">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z194">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA194" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB194">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC194">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AD194" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>18.46379288</v>
       </c>
@@ -40799,11 +47028,43 @@
         <v>5850</v>
       </c>
       <c r="V195">
-        <f t="shared" ref="V195:V207" si="3">IF(G195&lt;90, G195-H195, -100)</f>
+        <f t="shared" ref="V195:V207" si="27">IF(G195&lt;90, G195-H195, -100)</f>
         <v>2.1661758399999975</v>
       </c>
-    </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W195" s="2">
+        <f t="shared" ref="W195:W207" si="28">IF(G195&gt;90,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="X195">
+        <f t="shared" ref="X195:X207" si="29">IF(-3.88*D195 + 3.99 &lt; C195, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y195">
+        <f t="shared" ref="Y195:Y207" si="30">IF(-3.88*D195 + 7.29 &gt; C195, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z195">
+        <f t="shared" ref="Z195:Z207" si="31">IF(V195&gt;3.5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA195" s="7">
+        <f t="shared" ref="AA195:AA207" si="32">IF(Z195, 1,X195*Y195*W195)</f>
+        <v>1</v>
+      </c>
+      <c r="AB195">
+        <f t="shared" ref="AB195:AB207" si="33">W195*ABS(1-AA195)*ABS(1-Z195)</f>
+        <v>0</v>
+      </c>
+      <c r="AC195">
+        <f t="shared" ref="AC195:AC207" si="34">IF(G195&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD195" s="6">
+        <f t="shared" ref="AD195:AD207" si="35">AB195*AC195</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>18.610252020000001</v>
       </c>
@@ -40838,11 +47099,43 @@
         <v>5000</v>
       </c>
       <c r="V196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W196" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="Z196">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA196" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AB196">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AC196">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AD196" s="6">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>18.696334610000001</v>
       </c>
@@ -40904,11 +47197,43 @@
         <v>4850</v>
       </c>
       <c r="V197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>3.6842422500000005</v>
       </c>
-    </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W197" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="X197">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="Y197">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="Z197">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="AA197" s="7">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AB197">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AC197">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AD197" s="6">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>18.689883900000002</v>
       </c>
@@ -40943,11 +47268,43 @@
         <v>5850</v>
       </c>
       <c r="V198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W198" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="Z198">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA198" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AB198">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AC198">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AD198" s="6">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>18.613512239999999</v>
       </c>
@@ -40982,11 +47339,43 @@
         <v>6750</v>
       </c>
       <c r="V199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>3.6728973400000022</v>
       </c>
-    </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W199" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="X199">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="Y199">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="Z199">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="AA199" s="7">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AB199">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AC199">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AD199" s="6">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>18.571206270000001</v>
       </c>
@@ -41048,11 +47437,43 @@
         <v>5650</v>
       </c>
       <c r="V200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>1.2683448799999972</v>
       </c>
-    </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W200" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="X200">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="Z200">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA200" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AB200">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AC200">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AD200" s="6">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>18.588448169999999</v>
       </c>
@@ -41114,11 +47535,43 @@
         <v>4800</v>
       </c>
       <c r="V201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>3.3309898400000009</v>
       </c>
-    </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W201" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="X201">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="Y201">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="Z201">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA201" s="7">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AB201">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AC201">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AD201" s="6">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>18.698283249999999</v>
       </c>
@@ -41180,11 +47633,43 @@
         <v>5300</v>
       </c>
       <c r="V202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>2.0065631800000006</v>
       </c>
-    </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W202" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="X202">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="Y202">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="Z202">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA202" s="7">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AB202">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AC202">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AD202" s="6">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>18.50899969</v>
       </c>
@@ -41246,11 +47731,43 @@
         <v>3650</v>
       </c>
       <c r="V203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.71922683999999748</v>
       </c>
-    </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W203" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="X203">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="Z203">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA203" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AB203">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AC203">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AD203" s="6">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>18.527420330000002</v>
       </c>
@@ -41285,11 +47802,43 @@
         <v>3250</v>
       </c>
       <c r="V204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W204" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="Z204">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA204" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AB204">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AC204">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AD204" s="6">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>18.32877865</v>
       </c>
@@ -41351,11 +47900,43 @@
         <v>4650</v>
       </c>
       <c r="V205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W205" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="Z205">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA205" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AB205">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AC205">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AD205" s="6">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>18.477643879999999</v>
       </c>
@@ -41390,11 +47971,43 @@
         <v>6150</v>
       </c>
       <c r="V206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.8020248400000014</v>
       </c>
-    </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W206" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="X206">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="Z206">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA206" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AB206">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AC206">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AD206" s="6">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>18.5784229</v>
       </c>
@@ -41429,12 +48042,60 @@
         <v>6350</v>
       </c>
       <c r="V207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>3.1729087800000002</v>
       </c>
-    </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W207" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="X207">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="Y207">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Z207">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA207" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AB207">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AC207">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AD207" s="6">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:30" x14ac:dyDescent="0.25">
       <c r="U208" s="3"/>
+      <c r="W208" s="2">
+        <f>SUM(W2:W207)</f>
+        <v>146</v>
+      </c>
+      <c r="AA208" s="7">
+        <f>SUM(AA2:AA207)</f>
+        <v>89</v>
+      </c>
+      <c r="AB208" s="7">
+        <f>SUM(AB2:AB207)</f>
+        <v>57</v>
+      </c>
+      <c r="AD208" s="6">
+        <f>SUM(AD2:AD207)</f>
+        <v>57</v>
+      </c>
     </row>
     <row r="209" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U209" s="3"/>
